--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas.padgett\_R_\R_PSM_example\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFDF1C9-5274-4E5B-AEC1-77B7F984278D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56ED9F36-D339-4A39-A704-EF883EEB0A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12216" xr2:uid="{5C31BBB1-D3A4-45DA-9CBB-5D70D5C11B5C}"/>
+    <workbookView xWindow="-49725" yWindow="1020" windowWidth="23010" windowHeight="12210" xr2:uid="{5C31BBB1-D3A4-45DA-9CBB-5D70D5C11B5C}"/>
   </bookViews>
   <sheets>
-    <sheet name="demo" sheetId="5" r:id="rId1"/>
-    <sheet name="costs" sheetId="1" r:id="rId2"/>
-    <sheet name="ae" sheetId="2" r:id="rId3"/>
-    <sheet name="utils" sheetId="4" r:id="rId4"/>
+    <sheet name="model_controls" sheetId="6" r:id="rId1"/>
+    <sheet name="demo" sheetId="5" r:id="rId2"/>
+    <sheet name="costs" sheetId="1" r:id="rId3"/>
+    <sheet name="ae" sheetId="2" r:id="rId4"/>
+    <sheet name="utils" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="239">
   <si>
     <t>SE</t>
   </si>
@@ -717,6 +718,45 @@
   </si>
   <si>
     <t>ctrl_adm_cost_3</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Time horizon</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>Cycle time</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>DSA</t>
+  </si>
+  <si>
+    <t>PSA</t>
+  </si>
+  <si>
+    <t>Discounting (costs)</t>
+  </si>
+  <si>
+    <t>cost_discount</t>
+  </si>
+  <si>
+    <t>Discounting (benefits)</t>
+  </si>
+  <si>
+    <t>benefit_discount</t>
   </si>
 </sst>
 </file>
@@ -1066,18 +1106,133 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5686D09B-30B1-4A6C-93BB-B248234CACE9}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5B7671-BDCF-4EC0-8DF3-19573C2A48D6}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4">
+        <v>0.03</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5">
+        <v>0.03</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5686D09B-30B1-4A6C-93BB-B248234CACE9}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1086,7 +1241,7 @@
     <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1108,8 +1263,14 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>206</v>
       </c>
@@ -1119,8 +1280,14 @@
       <c r="C2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>206</v>
       </c>
@@ -1129,6 +1296,12 @@
       </c>
       <c r="C3" t="s">
         <v>210</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1136,12 +1309,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90FABA3-20EE-4CA7-A6AF-57355EDEACA6}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="H1" sqref="H1:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1151,7 +1324,7 @@
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1173,8 +1346,14 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>161</v>
       </c>
@@ -1184,8 +1363,14 @@
       <c r="C2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>161</v>
       </c>
@@ -1195,8 +1380,14 @@
       <c r="C3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>164</v>
       </c>
@@ -1206,8 +1397,14 @@
       <c r="C4" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -1217,8 +1414,14 @@
       <c r="C5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -1228,8 +1431,14 @@
       <c r="C6" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>129</v>
       </c>
@@ -1239,8 +1448,14 @@
       <c r="C7" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>129</v>
       </c>
@@ -1250,8 +1465,14 @@
       <c r="C8" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>129</v>
       </c>
@@ -1261,8 +1482,14 @@
       <c r="C9" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>129</v>
       </c>
@@ -1272,8 +1499,14 @@
       <c r="C10" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>129</v>
       </c>
@@ -1283,8 +1516,14 @@
       <c r="C11" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>129</v>
       </c>
@@ -1294,8 +1533,14 @@
       <c r="C12" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>129</v>
       </c>
@@ -1305,8 +1550,14 @@
       <c r="C13" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -1316,8 +1567,14 @@
       <c r="C14" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -1327,8 +1584,14 @@
       <c r="C15" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -1338,8 +1601,14 @@
       <c r="C16" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>129</v>
       </c>
@@ -1349,8 +1618,14 @@
       <c r="C17" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>129</v>
       </c>
@@ -1360,8 +1635,14 @@
       <c r="C18" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>129</v>
       </c>
@@ -1371,8 +1652,14 @@
       <c r="C19" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>129</v>
       </c>
@@ -1382,8 +1669,14 @@
       <c r="C20" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>129</v>
       </c>
@@ -1393,8 +1686,14 @@
       <c r="C21" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -1404,8 +1703,14 @@
       <c r="C22" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>145</v>
       </c>
@@ -1415,8 +1720,14 @@
       <c r="C23" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>145</v>
       </c>
@@ -1426,8 +1737,14 @@
       <c r="C24" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>145</v>
       </c>
@@ -1437,8 +1754,14 @@
       <c r="C25" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>145</v>
       </c>
@@ -1448,8 +1771,14 @@
       <c r="C26" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>145</v>
       </c>
@@ -1459,8 +1788,14 @@
       <c r="C27" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>145</v>
       </c>
@@ -1470,8 +1805,14 @@
       <c r="C28" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>145</v>
       </c>
@@ -1481,8 +1822,14 @@
       <c r="C29" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>145</v>
       </c>
@@ -1492,8 +1839,14 @@
       <c r="C30" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>145</v>
       </c>
@@ -1503,8 +1856,14 @@
       <c r="C31" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>145</v>
       </c>
@@ -1514,8 +1873,14 @@
       <c r="C32" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>145</v>
       </c>
@@ -1525,8 +1890,14 @@
       <c r="C33" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>145</v>
       </c>
@@ -1536,8 +1907,14 @@
       <c r="C34" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>145</v>
       </c>
@@ -1547,8 +1924,14 @@
       <c r="C35" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>145</v>
       </c>
@@ -1558,8 +1941,14 @@
       <c r="C36" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>145</v>
       </c>
@@ -1569,8 +1958,14 @@
       <c r="C37" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -1580,8 +1975,14 @@
       <c r="C38" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>145</v>
       </c>
@@ -1591,8 +1992,14 @@
       <c r="C39" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>145</v>
       </c>
@@ -1601,6 +2008,12 @@
       </c>
       <c r="C40" t="s">
         <v>194</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1609,12 +2022,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC300FC9-929C-4B39-8AF5-D54C767CC59F}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="H1" sqref="H1:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1624,7 +2037,7 @@
     <col min="3" max="3" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1646,8 +2059,14 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1657,8 +2076,14 @@
       <c r="C2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1668,8 +2093,14 @@
       <c r="C3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1679,8 +2110,14 @@
       <c r="C4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1690,8 +2127,14 @@
       <c r="C5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1701,8 +2144,14 @@
       <c r="C6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1712,8 +2161,14 @@
       <c r="C7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1723,8 +2178,14 @@
       <c r="C8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1734,8 +2195,14 @@
       <c r="C9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1745,8 +2212,14 @@
       <c r="C10" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1756,8 +2229,14 @@
       <c r="C11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1767,8 +2246,14 @@
       <c r="C12" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1778,8 +2263,14 @@
       <c r="C13" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1789,8 +2280,14 @@
       <c r="C14" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1800,8 +2297,14 @@
       <c r="C15" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1811,8 +2314,14 @@
       <c r="C16" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1822,8 +2331,14 @@
       <c r="C17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1833,8 +2348,14 @@
       <c r="C18" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1844,8 +2365,14 @@
       <c r="C19" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1855,8 +2382,14 @@
       <c r="C20" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1866,8 +2399,14 @@
       <c r="C21" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1877,8 +2416,14 @@
       <c r="C22" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1888,8 +2433,14 @@
       <c r="C23" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1899,8 +2450,14 @@
       <c r="C24" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -1910,8 +2467,14 @@
       <c r="C25" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1921,8 +2484,14 @@
       <c r="C26" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -1932,8 +2501,14 @@
       <c r="C27" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -1943,8 +2518,14 @@
       <c r="C28" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -1954,8 +2535,14 @@
       <c r="C29" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -1965,8 +2552,14 @@
       <c r="C30" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -1976,8 +2569,14 @@
       <c r="C31" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1987,8 +2586,14 @@
       <c r="C32" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1998,8 +2603,14 @@
       <c r="C33" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -2009,8 +2620,14 @@
       <c r="C34" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -2020,8 +2637,14 @@
       <c r="C35" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2031,8 +2654,14 @@
       <c r="C36" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -2042,8 +2671,14 @@
       <c r="C37" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2053,8 +2688,14 @@
       <c r="C38" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2064,8 +2705,14 @@
       <c r="C39" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2075,8 +2722,14 @@
       <c r="C40" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -2086,8 +2739,14 @@
       <c r="C41" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -2097,8 +2756,14 @@
       <c r="C42" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -2108,8 +2773,14 @@
       <c r="C43" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -2119,8 +2790,14 @@
       <c r="C44" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -2130,8 +2807,14 @@
       <c r="C45" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -2141,8 +2824,14 @@
       <c r="C46" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -2152,8 +2841,14 @@
       <c r="C47" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -2163,8 +2858,14 @@
       <c r="C48" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -2174,8 +2875,14 @@
       <c r="C49" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -2185,8 +2892,14 @@
       <c r="C50" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>38</v>
       </c>
@@ -2196,8 +2909,14 @@
       <c r="C51" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -2207,8 +2926,14 @@
       <c r="C52" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -2218,8 +2943,14 @@
       <c r="C53" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -2229,8 +2960,14 @@
       <c r="C54" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -2240,8 +2977,14 @@
       <c r="C55" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>38</v>
       </c>
@@ -2251,8 +2994,14 @@
       <c r="C56" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>38</v>
       </c>
@@ -2262,8 +3011,14 @@
       <c r="C57" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>38</v>
       </c>
@@ -2273,8 +3028,14 @@
       <c r="C58" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -2284,8 +3045,14 @@
       <c r="C59" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -2295,8 +3062,14 @@
       <c r="C60" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -2305,6 +3078,12 @@
       </c>
       <c r="C61" t="s">
         <v>128</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2313,12 +3092,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2762E7-7DF8-4CB5-920F-9667D1068F4E}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2329,7 +3108,7 @@
     <col min="4" max="4" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -2351,8 +3130,14 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>166</v>
       </c>
@@ -2362,8 +3147,14 @@
       <c r="C2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>166</v>
       </c>
@@ -2373,8 +3164,14 @@
       <c r="C3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>167</v>
       </c>
@@ -2384,8 +3181,14 @@
       <c r="C4" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -2394,6 +3197,12 @@
       </c>
       <c r="C5" t="s">
         <v>201</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas.padgett\_R_\R_PSM_example\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56ED9F36-D339-4A39-A704-EF883EEB0A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DB0B64-A165-4D19-80DC-C6B24AA76BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-49725" yWindow="1020" windowWidth="23010" windowHeight="12210" xr2:uid="{5C31BBB1-D3A4-45DA-9CBB-5D70D5C11B5C}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="240">
   <si>
     <t>SE</t>
   </si>
@@ -757,6 +757,9 @@
   </si>
   <si>
     <t>benefit_discount</t>
+  </si>
+  <si>
+    <t>cohort</t>
   </si>
 </sst>
 </file>
@@ -1114,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5B7671-BDCF-4EC0-8DF3-19573C2A48D6}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1219,6 +1222,23 @@
         <v>0</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
     </row>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas.padgett\_R_\R_PSM_example\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DB0B64-A165-4D19-80DC-C6B24AA76BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AE308F-A982-4CA5-814B-081F64225CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-49725" yWindow="1020" windowWidth="23010" windowHeight="12210" xr2:uid="{5C31BBB1-D3A4-45DA-9CBB-5D70D5C11B5C}"/>
+    <workbookView xWindow="-49725" yWindow="1020" windowWidth="23010" windowHeight="12210" activeTab="2" xr2:uid="{5C31BBB1-D3A4-45DA-9CBB-5D70D5C11B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="model_controls" sheetId="6" r:id="rId1"/>
@@ -531,9 +531,6 @@
     <t>Progression free survival cost</t>
   </si>
   <si>
-    <t>Overall survival cost</t>
-  </si>
-  <si>
     <t>event</t>
   </si>
   <si>
@@ -630,9 +627,6 @@
     <t>cost_PFS</t>
   </si>
   <si>
-    <t>cost_OS</t>
-  </si>
-  <si>
     <t>cost_death</t>
   </si>
   <si>
@@ -760,6 +754,12 @@
   </si>
   <si>
     <t>cohort</t>
+  </si>
+  <si>
+    <t>Progressed disease cost</t>
+  </si>
+  <si>
+    <t>cost_PD</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5B7671-BDCF-4EC0-8DF3-19573C2A48D6}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -1133,36 +1133,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C2">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1173,16 +1173,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C4">
         <v>0.03</v>
@@ -1210,10 +1210,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C5">
         <v>0.03</v>
@@ -1227,10 +1227,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C6">
         <v>1000</v>
@@ -1284,21 +1284,21 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" t="s">
         <v>207</v>
-      </c>
-      <c r="C2" t="s">
-        <v>209</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1309,13 +1309,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" t="s">
         <v>206</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>208</v>
-      </c>
-      <c r="C3" t="s">
-        <v>210</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1333,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90FABA3-20EE-4CA7-A6AF-57355EDEACA6}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1367,10 +1367,10 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1381,7 +1381,7 @@
         <v>162</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1395,10 +1395,10 @@
         <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1409,13 +1409,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" t="s">
         <v>164</v>
       </c>
-      <c r="B4" t="s">
-        <v>165</v>
-      </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1480,10 +1480,10 @@
         <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1497,10 +1497,10 @@
         <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1514,10 +1514,10 @@
         <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>133</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1568,7 +1568,7 @@
         <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>136</v>
       </c>
       <c r="C14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1602,7 +1602,7 @@
         <v>143</v>
       </c>
       <c r="C15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>144</v>
       </c>
       <c r="C16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>137</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1653,7 +1653,7 @@
         <v>141</v>
       </c>
       <c r="C18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>142</v>
       </c>
       <c r="C19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1687,7 +1687,7 @@
         <v>138</v>
       </c>
       <c r="C20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1721,7 +1721,7 @@
         <v>140</v>
       </c>
       <c r="C22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>146</v>
       </c>
       <c r="C23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1755,7 +1755,7 @@
         <v>147</v>
       </c>
       <c r="C24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1772,7 +1772,7 @@
         <v>148</v>
       </c>
       <c r="C25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1786,10 +1786,10 @@
         <v>145</v>
       </c>
       <c r="B26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C26" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1803,10 +1803,10 @@
         <v>145</v>
       </c>
       <c r="B27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C27" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1820,10 +1820,10 @@
         <v>145</v>
       </c>
       <c r="B28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1840,7 +1840,7 @@
         <v>149</v>
       </c>
       <c r="C29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1857,7 +1857,7 @@
         <v>150</v>
       </c>
       <c r="C30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1874,7 +1874,7 @@
         <v>151</v>
       </c>
       <c r="C31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>152</v>
       </c>
       <c r="C32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1908,7 +1908,7 @@
         <v>153</v>
       </c>
       <c r="C33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>154</v>
       </c>
       <c r="C34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -1942,7 +1942,7 @@
         <v>155</v>
       </c>
       <c r="C35" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>156</v>
       </c>
       <c r="C36" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>157</v>
       </c>
       <c r="C37" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>158</v>
       </c>
       <c r="C38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>159</v>
       </c>
       <c r="C39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2027,7 +2027,7 @@
         <v>160</v>
       </c>
       <c r="C40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -3151,21 +3151,21 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3176,13 +3176,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3193,13 +3193,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3210,13 +3210,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H5">
         <v>0</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas.padgett\_R_\R_PSM_example\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AE308F-A982-4CA5-814B-081F64225CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D288D729-F13B-47F3-99EA-573A5AB95499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-49725" yWindow="1020" windowWidth="23010" windowHeight="12210" activeTab="2" xr2:uid="{5C31BBB1-D3A4-45DA-9CBB-5D70D5C11B5C}"/>
+    <workbookView xWindow="-29595" yWindow="2040" windowWidth="27525" windowHeight="16920" activeTab="1" xr2:uid="{5C31BBB1-D3A4-45DA-9CBB-5D70D5C11B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="model_controls" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="ae" sheetId="2" r:id="rId4"/>
     <sheet name="utils" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="241">
   <si>
     <t>SE</t>
   </si>
@@ -633,27 +633,15 @@
     <t>trt_util_PFS</t>
   </si>
   <si>
-    <t>trt_util_OS</t>
-  </si>
-  <si>
     <t>ctrl_util_PFS</t>
   </si>
   <si>
-    <t>ctrl_util_OS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Treatment progression free survival utility </t>
   </si>
   <si>
-    <t>Treatment overall survival cost</t>
-  </si>
-  <si>
     <t xml:space="preserve">Control progression free survival utility </t>
   </si>
   <si>
-    <t>Control overall survival cost</t>
-  </si>
-  <si>
     <t>demo</t>
   </si>
   <si>
@@ -760,6 +748,21 @@
   </si>
   <si>
     <t>cost_PD</t>
+  </si>
+  <si>
+    <t>Made up</t>
+  </si>
+  <si>
+    <t>Treatment progressed disease cost</t>
+  </si>
+  <si>
+    <t>Control progressed disease cost</t>
+  </si>
+  <si>
+    <t>trt_util_PD</t>
+  </si>
+  <si>
+    <t>ctrl_util_PD</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1123,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1133,36 +1136,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C2">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1173,16 +1176,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1193,10 +1196,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C4">
         <v>0.03</v>
@@ -1210,10 +1213,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C5">
         <v>0.03</v>
@@ -1227,10 +1230,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C6">
         <v>1000</v>
@@ -1251,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5686D09B-30B1-4A6C-93BB-B248234CACE9}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1284,21 +1287,30 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
+        <v>203</v>
+      </c>
+      <c r="D2">
+        <v>70.3</v>
+      </c>
+      <c r="E2">
+        <v>0.4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>236</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1309,13 +1321,22 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" t="s">
         <v>204</v>
       </c>
-      <c r="B3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" t="s">
-        <v>208</v>
+      <c r="D3">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>236</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1333,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90FABA3-20EE-4CA7-A6AF-57355EDEACA6}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1367,10 +1388,10 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1383,6 +1404,15 @@
       <c r="C2" t="s">
         <v>194</v>
       </c>
+      <c r="D2">
+        <v>500</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>236</v>
+      </c>
       <c r="H2">
         <v>0</v>
       </c>
@@ -1395,10 +1425,19 @@
         <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C3" t="s">
-        <v>239</v>
+        <v>235</v>
+      </c>
+      <c r="D3">
+        <v>2500</v>
+      </c>
+      <c r="E3">
+        <v>500</v>
+      </c>
+      <c r="F3" t="s">
+        <v>236</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1417,6 +1456,15 @@
       <c r="C4" t="s">
         <v>195</v>
       </c>
+      <c r="D4">
+        <v>10000</v>
+      </c>
+      <c r="E4">
+        <v>1000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>236</v>
+      </c>
       <c r="H4">
         <v>0</v>
       </c>
@@ -1434,6 +1482,12 @@
       <c r="C5" t="s">
         <v>167</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>236</v>
+      </c>
       <c r="H5">
         <v>0</v>
       </c>
@@ -1451,6 +1505,12 @@
       <c r="C6" t="s">
         <v>168</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>236</v>
+      </c>
       <c r="H6">
         <v>0</v>
       </c>
@@ -1468,6 +1528,12 @@
       <c r="C7" t="s">
         <v>169</v>
       </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>236</v>
+      </c>
       <c r="H7">
         <v>0</v>
       </c>
@@ -1480,10 +1546,16 @@
         <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
-        <v>212</v>
+        <v>208</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>236</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1497,10 +1569,16 @@
         <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C9" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>236</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1514,10 +1592,16 @@
         <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C10" t="s">
-        <v>214</v>
+        <v>210</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>236</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1536,6 +1620,12 @@
       <c r="C11" t="s">
         <v>179</v>
       </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>236</v>
+      </c>
       <c r="H11">
         <v>0</v>
       </c>
@@ -1553,6 +1643,12 @@
       <c r="C12" t="s">
         <v>180</v>
       </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>236</v>
+      </c>
       <c r="H12">
         <v>0</v>
       </c>
@@ -1570,6 +1666,12 @@
       <c r="C13" t="s">
         <v>181</v>
       </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>236</v>
+      </c>
       <c r="H13">
         <v>0</v>
       </c>
@@ -1587,6 +1689,12 @@
       <c r="C14" t="s">
         <v>182</v>
       </c>
+      <c r="D14">
+        <v>6500</v>
+      </c>
+      <c r="F14" t="s">
+        <v>236</v>
+      </c>
       <c r="H14">
         <v>0</v>
       </c>
@@ -1604,6 +1712,12 @@
       <c r="C15" t="s">
         <v>183</v>
       </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>236</v>
+      </c>
       <c r="H15">
         <v>0</v>
       </c>
@@ -1621,6 +1735,12 @@
       <c r="C16" t="s">
         <v>184</v>
       </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>236</v>
+      </c>
       <c r="H16">
         <v>0</v>
       </c>
@@ -1638,6 +1758,12 @@
       <c r="C17" t="s">
         <v>188</v>
       </c>
+      <c r="D17">
+        <v>500</v>
+      </c>
+      <c r="F17" t="s">
+        <v>236</v>
+      </c>
       <c r="H17">
         <v>0</v>
       </c>
@@ -1655,6 +1781,12 @@
       <c r="C18" t="s">
         <v>189</v>
       </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>236</v>
+      </c>
       <c r="H18">
         <v>0</v>
       </c>
@@ -1672,6 +1804,12 @@
       <c r="C19" t="s">
         <v>190</v>
       </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>236</v>
+      </c>
       <c r="H19">
         <v>0</v>
       </c>
@@ -1689,6 +1827,12 @@
       <c r="C20" t="s">
         <v>170</v>
       </c>
+      <c r="D20">
+        <v>0.4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>236</v>
+      </c>
       <c r="H20">
         <v>0</v>
       </c>
@@ -1706,6 +1850,12 @@
       <c r="C21" t="s">
         <v>171</v>
       </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>236</v>
+      </c>
       <c r="H21">
         <v>0</v>
       </c>
@@ -1723,6 +1873,12 @@
       <c r="C22" t="s">
         <v>172</v>
       </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>236</v>
+      </c>
       <c r="H22">
         <v>0</v>
       </c>
@@ -1740,6 +1896,12 @@
       <c r="C23" t="s">
         <v>173</v>
       </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>236</v>
+      </c>
       <c r="H23">
         <v>0</v>
       </c>
@@ -1757,6 +1919,12 @@
       <c r="C24" t="s">
         <v>174</v>
       </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>236</v>
+      </c>
       <c r="H24">
         <v>0</v>
       </c>
@@ -1774,6 +1942,12 @@
       <c r="C25" t="s">
         <v>175</v>
       </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>236</v>
+      </c>
       <c r="H25">
         <v>0</v>
       </c>
@@ -1786,10 +1960,16 @@
         <v>145</v>
       </c>
       <c r="B26" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C26" t="s">
-        <v>218</v>
+        <v>214</v>
+      </c>
+      <c r="D26">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>236</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1803,10 +1983,16 @@
         <v>145</v>
       </c>
       <c r="B27" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C27" t="s">
-        <v>219</v>
+        <v>215</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>236</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1820,10 +2006,16 @@
         <v>145</v>
       </c>
       <c r="B28" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C28" t="s">
-        <v>220</v>
+        <v>216</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>236</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1842,6 +2034,12 @@
       <c r="C29" t="s">
         <v>176</v>
       </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>236</v>
+      </c>
       <c r="H29">
         <v>0</v>
       </c>
@@ -1859,6 +2057,12 @@
       <c r="C30" t="s">
         <v>177</v>
       </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>236</v>
+      </c>
       <c r="H30">
         <v>0</v>
       </c>
@@ -1876,6 +2080,12 @@
       <c r="C31" t="s">
         <v>178</v>
       </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>236</v>
+      </c>
       <c r="H31">
         <v>0</v>
       </c>
@@ -1893,6 +2103,12 @@
       <c r="C32" t="s">
         <v>185</v>
       </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>236</v>
+      </c>
       <c r="H32">
         <v>0</v>
       </c>
@@ -1910,6 +2126,12 @@
       <c r="C33" t="s">
         <v>186</v>
       </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>236</v>
+      </c>
       <c r="H33">
         <v>0</v>
       </c>
@@ -1927,6 +2149,12 @@
       <c r="C34" t="s">
         <v>187</v>
       </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>236</v>
+      </c>
       <c r="H34">
         <v>0</v>
       </c>
@@ -1942,7 +2170,13 @@
         <v>155</v>
       </c>
       <c r="C35" t="s">
-        <v>221</v>
+        <v>217</v>
+      </c>
+      <c r="D35">
+        <v>500</v>
+      </c>
+      <c r="F35" t="s">
+        <v>236</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1959,7 +2193,13 @@
         <v>156</v>
       </c>
       <c r="C36" t="s">
-        <v>222</v>
+        <v>218</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>236</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -1976,7 +2216,13 @@
         <v>157</v>
       </c>
       <c r="C37" t="s">
-        <v>223</v>
+        <v>219</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>236</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -1995,6 +2241,12 @@
       <c r="C38" t="s">
         <v>191</v>
       </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>236</v>
+      </c>
       <c r="H38">
         <v>0</v>
       </c>
@@ -2012,6 +2264,12 @@
       <c r="C39" t="s">
         <v>192</v>
       </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>236</v>
+      </c>
       <c r="H39">
         <v>0</v>
       </c>
@@ -2028,6 +2286,12 @@
       </c>
       <c r="C40" t="s">
         <v>193</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>236</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2047,7 +2311,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2080,10 +2344,10 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -2096,6 +2360,15 @@
       <c r="C2" t="s">
         <v>69</v>
       </c>
+      <c r="D2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E2">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>236</v>
+      </c>
       <c r="H2">
         <v>0</v>
       </c>
@@ -2113,6 +2386,15 @@
       <c r="C3" t="s">
         <v>70</v>
       </c>
+      <c r="D3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>236</v>
+      </c>
       <c r="H3">
         <v>0</v>
       </c>
@@ -2130,6 +2412,15 @@
       <c r="C4" t="s">
         <v>71</v>
       </c>
+      <c r="D4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E4">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>236</v>
+      </c>
       <c r="H4">
         <v>0</v>
       </c>
@@ -2147,6 +2438,15 @@
       <c r="C5" t="s">
         <v>72</v>
       </c>
+      <c r="D5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E5">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>236</v>
+      </c>
       <c r="H5">
         <v>0</v>
       </c>
@@ -2164,6 +2464,15 @@
       <c r="C6" t="s">
         <v>73</v>
       </c>
+      <c r="D6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E6">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>236</v>
+      </c>
       <c r="H6">
         <v>0</v>
       </c>
@@ -2181,6 +2490,15 @@
       <c r="C7" t="s">
         <v>74</v>
       </c>
+      <c r="D7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E7">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>236</v>
+      </c>
       <c r="H7">
         <v>0</v>
       </c>
@@ -2198,6 +2516,15 @@
       <c r="C8" t="s">
         <v>75</v>
       </c>
+      <c r="D8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E8">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>236</v>
+      </c>
       <c r="H8">
         <v>0</v>
       </c>
@@ -2215,6 +2542,15 @@
       <c r="C9" t="s">
         <v>76</v>
       </c>
+      <c r="D9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E9">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>236</v>
+      </c>
       <c r="H9">
         <v>0</v>
       </c>
@@ -2232,6 +2568,15 @@
       <c r="C10" t="s">
         <v>77</v>
       </c>
+      <c r="D10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E10">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>236</v>
+      </c>
       <c r="H10">
         <v>0</v>
       </c>
@@ -2249,6 +2594,15 @@
       <c r="C11" t="s">
         <v>78</v>
       </c>
+      <c r="D11">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E11">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>236</v>
+      </c>
       <c r="H11">
         <v>0</v>
       </c>
@@ -2266,6 +2620,15 @@
       <c r="C12" t="s">
         <v>79</v>
       </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>236</v>
+      </c>
       <c r="H12">
         <v>0</v>
       </c>
@@ -2283,6 +2646,15 @@
       <c r="C13" t="s">
         <v>80</v>
       </c>
+      <c r="D13">
+        <v>1000</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13" t="s">
+        <v>236</v>
+      </c>
       <c r="H13">
         <v>0</v>
       </c>
@@ -2300,6 +2672,15 @@
       <c r="C14" t="s">
         <v>81</v>
       </c>
+      <c r="D14">
+        <v>500</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="F14" t="s">
+        <v>236</v>
+      </c>
       <c r="H14">
         <v>0</v>
       </c>
@@ -2317,6 +2698,15 @@
       <c r="C15" t="s">
         <v>82</v>
       </c>
+      <c r="D15">
+        <v>500</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="F15" t="s">
+        <v>236</v>
+      </c>
       <c r="H15">
         <v>0</v>
       </c>
@@ -2334,6 +2724,15 @@
       <c r="C16" t="s">
         <v>83</v>
       </c>
+      <c r="D16">
+        <v>750</v>
+      </c>
+      <c r="E16">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s">
+        <v>236</v>
+      </c>
       <c r="H16">
         <v>0</v>
       </c>
@@ -2351,6 +2750,15 @@
       <c r="C17" t="s">
         <v>84</v>
       </c>
+      <c r="D17">
+        <v>750</v>
+      </c>
+      <c r="E17">
+        <v>75</v>
+      </c>
+      <c r="F17" t="s">
+        <v>236</v>
+      </c>
       <c r="H17">
         <v>0</v>
       </c>
@@ -2368,6 +2776,15 @@
       <c r="C18" t="s">
         <v>85</v>
       </c>
+      <c r="D18">
+        <v>3000</v>
+      </c>
+      <c r="E18">
+        <v>300</v>
+      </c>
+      <c r="F18" t="s">
+        <v>236</v>
+      </c>
       <c r="H18">
         <v>0</v>
       </c>
@@ -2385,6 +2802,15 @@
       <c r="C19" t="s">
         <v>86</v>
       </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>236</v>
+      </c>
       <c r="H19">
         <v>0</v>
       </c>
@@ -2402,6 +2828,15 @@
       <c r="C20" t="s">
         <v>87</v>
       </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>236</v>
+      </c>
       <c r="H20">
         <v>0</v>
       </c>
@@ -2419,6 +2854,15 @@
       <c r="C21" t="s">
         <v>88</v>
       </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>236</v>
+      </c>
       <c r="H21">
         <v>0</v>
       </c>
@@ -2436,6 +2880,15 @@
       <c r="C22" t="s">
         <v>89</v>
       </c>
+      <c r="D22">
+        <v>0.01</v>
+      </c>
+      <c r="E22">
+        <v>2E-3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>236</v>
+      </c>
       <c r="H22">
         <v>0</v>
       </c>
@@ -2453,6 +2906,15 @@
       <c r="C23" t="s">
         <v>90</v>
       </c>
+      <c r="D23">
+        <v>0.08</v>
+      </c>
+      <c r="E23">
+        <v>0.02</v>
+      </c>
+      <c r="F23" t="s">
+        <v>236</v>
+      </c>
       <c r="H23">
         <v>0</v>
       </c>
@@ -2470,6 +2932,15 @@
       <c r="C24" t="s">
         <v>91</v>
       </c>
+      <c r="D24">
+        <v>0.01</v>
+      </c>
+      <c r="E24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>236</v>
+      </c>
       <c r="H24">
         <v>0</v>
       </c>
@@ -2487,6 +2958,15 @@
       <c r="C25" t="s">
         <v>92</v>
       </c>
+      <c r="D25">
+        <v>0.1</v>
+      </c>
+      <c r="E25">
+        <v>0.01</v>
+      </c>
+      <c r="F25" t="s">
+        <v>236</v>
+      </c>
       <c r="H25">
         <v>0</v>
       </c>
@@ -2504,6 +2984,15 @@
       <c r="C26" t="s">
         <v>93</v>
       </c>
+      <c r="D26">
+        <v>0.02</v>
+      </c>
+      <c r="E26">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>236</v>
+      </c>
       <c r="H26">
         <v>0</v>
       </c>
@@ -2521,6 +3010,15 @@
       <c r="C27" t="s">
         <v>94</v>
       </c>
+      <c r="D27">
+        <v>0.02</v>
+      </c>
+      <c r="E27">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>236</v>
+      </c>
       <c r="H27">
         <v>0</v>
       </c>
@@ -2538,6 +3036,15 @@
       <c r="C28" t="s">
         <v>95</v>
       </c>
+      <c r="D28">
+        <v>0.02</v>
+      </c>
+      <c r="E28">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>236</v>
+      </c>
       <c r="H28">
         <v>0</v>
       </c>
@@ -2555,6 +3062,15 @@
       <c r="C29" t="s">
         <v>96</v>
       </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>236</v>
+      </c>
       <c r="H29">
         <v>0</v>
       </c>
@@ -2572,6 +3088,15 @@
       <c r="C30" t="s">
         <v>97</v>
       </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>236</v>
+      </c>
       <c r="H30">
         <v>0</v>
       </c>
@@ -2589,6 +3114,15 @@
       <c r="C31" t="s">
         <v>98</v>
       </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>236</v>
+      </c>
       <c r="H31">
         <v>0</v>
       </c>
@@ -2606,6 +3140,15 @@
       <c r="C32" t="s">
         <v>99</v>
       </c>
+      <c r="D32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E32">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>236</v>
+      </c>
       <c r="H32">
         <v>0</v>
       </c>
@@ -2623,6 +3166,15 @@
       <c r="C33" t="s">
         <v>100</v>
       </c>
+      <c r="D33">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E33">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>236</v>
+      </c>
       <c r="H33">
         <v>0</v>
       </c>
@@ -2640,6 +3192,15 @@
       <c r="C34" t="s">
         <v>101</v>
       </c>
+      <c r="D34">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E34">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>236</v>
+      </c>
       <c r="H34">
         <v>0</v>
       </c>
@@ -2657,6 +3218,15 @@
       <c r="C35" t="s">
         <v>102</v>
       </c>
+      <c r="D35">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E35">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>236</v>
+      </c>
       <c r="H35">
         <v>0</v>
       </c>
@@ -2674,6 +3244,15 @@
       <c r="C36" t="s">
         <v>103</v>
       </c>
+      <c r="D36">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E36">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F36" t="s">
+        <v>236</v>
+      </c>
       <c r="H36">
         <v>0</v>
       </c>
@@ -2691,6 +3270,15 @@
       <c r="C37" t="s">
         <v>104</v>
       </c>
+      <c r="D37">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E37">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>236</v>
+      </c>
       <c r="H37">
         <v>0</v>
       </c>
@@ -2708,6 +3296,15 @@
       <c r="C38" t="s">
         <v>105</v>
       </c>
+      <c r="D38">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E38">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>236</v>
+      </c>
       <c r="H38">
         <v>0</v>
       </c>
@@ -2725,6 +3322,15 @@
       <c r="C39" t="s">
         <v>106</v>
       </c>
+      <c r="D39">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E39">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>236</v>
+      </c>
       <c r="H39">
         <v>0</v>
       </c>
@@ -2742,6 +3348,15 @@
       <c r="C40" t="s">
         <v>107</v>
       </c>
+      <c r="D40">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E40">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F40" t="s">
+        <v>236</v>
+      </c>
       <c r="H40">
         <v>0</v>
       </c>
@@ -2759,6 +3374,15 @@
       <c r="C41" t="s">
         <v>108</v>
       </c>
+      <c r="D41">
+        <v>2E-3</v>
+      </c>
+      <c r="E41">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F41" t="s">
+        <v>236</v>
+      </c>
       <c r="H41">
         <v>0</v>
       </c>
@@ -2776,6 +3400,15 @@
       <c r="C42" t="s">
         <v>109</v>
       </c>
+      <c r="D42">
+        <v>100</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>236</v>
+      </c>
       <c r="H42">
         <v>0</v>
       </c>
@@ -2793,6 +3426,15 @@
       <c r="C43" t="s">
         <v>110</v>
       </c>
+      <c r="D43">
+        <v>1000</v>
+      </c>
+      <c r="E43">
+        <v>100</v>
+      </c>
+      <c r="F43" t="s">
+        <v>236</v>
+      </c>
       <c r="H43">
         <v>0</v>
       </c>
@@ -2810,6 +3452,15 @@
       <c r="C44" t="s">
         <v>111</v>
       </c>
+      <c r="D44">
+        <v>500</v>
+      </c>
+      <c r="E44">
+        <v>50</v>
+      </c>
+      <c r="F44" t="s">
+        <v>236</v>
+      </c>
       <c r="H44">
         <v>0</v>
       </c>
@@ -2827,6 +3478,15 @@
       <c r="C45" t="s">
         <v>112</v>
       </c>
+      <c r="D45">
+        <v>500</v>
+      </c>
+      <c r="E45">
+        <v>50</v>
+      </c>
+      <c r="F45" t="s">
+        <v>236</v>
+      </c>
       <c r="H45">
         <v>0</v>
       </c>
@@ -2844,6 +3504,15 @@
       <c r="C46" t="s">
         <v>113</v>
       </c>
+      <c r="D46">
+        <v>750</v>
+      </c>
+      <c r="E46">
+        <v>75</v>
+      </c>
+      <c r="F46" t="s">
+        <v>236</v>
+      </c>
       <c r="H46">
         <v>0</v>
       </c>
@@ -2861,6 +3530,15 @@
       <c r="C47" t="s">
         <v>114</v>
       </c>
+      <c r="D47">
+        <v>750</v>
+      </c>
+      <c r="E47">
+        <v>75</v>
+      </c>
+      <c r="F47" t="s">
+        <v>236</v>
+      </c>
       <c r="H47">
         <v>0</v>
       </c>
@@ -2878,6 +3556,15 @@
       <c r="C48" t="s">
         <v>115</v>
       </c>
+      <c r="D48">
+        <v>3000</v>
+      </c>
+      <c r="E48">
+        <v>300</v>
+      </c>
+      <c r="F48" t="s">
+        <v>236</v>
+      </c>
       <c r="H48">
         <v>0</v>
       </c>
@@ -2895,6 +3582,15 @@
       <c r="C49" t="s">
         <v>116</v>
       </c>
+      <c r="D49">
+        <v>100</v>
+      </c>
+      <c r="E49">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>236</v>
+      </c>
       <c r="H49">
         <v>0</v>
       </c>
@@ -2912,6 +3608,15 @@
       <c r="C50" t="s">
         <v>117</v>
       </c>
+      <c r="D50">
+        <v>100</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>236</v>
+      </c>
       <c r="H50">
         <v>0</v>
       </c>
@@ -2929,6 +3634,15 @@
       <c r="C51" t="s">
         <v>118</v>
       </c>
+      <c r="D51">
+        <v>100</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>236</v>
+      </c>
       <c r="H51">
         <v>0</v>
       </c>
@@ -2946,6 +3660,15 @@
       <c r="C52" t="s">
         <v>119</v>
       </c>
+      <c r="D52">
+        <v>0.01</v>
+      </c>
+      <c r="E52">
+        <v>2E-3</v>
+      </c>
+      <c r="F52" t="s">
+        <v>236</v>
+      </c>
       <c r="H52">
         <v>0</v>
       </c>
@@ -2963,6 +3686,15 @@
       <c r="C53" t="s">
         <v>120</v>
       </c>
+      <c r="D53">
+        <v>0.08</v>
+      </c>
+      <c r="E53">
+        <v>0.02</v>
+      </c>
+      <c r="F53" t="s">
+        <v>236</v>
+      </c>
       <c r="H53">
         <v>0</v>
       </c>
@@ -2980,6 +3712,15 @@
       <c r="C54" t="s">
         <v>121</v>
       </c>
+      <c r="D54">
+        <v>0.01</v>
+      </c>
+      <c r="E54">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F54" t="s">
+        <v>236</v>
+      </c>
       <c r="H54">
         <v>0</v>
       </c>
@@ -2997,6 +3738,15 @@
       <c r="C55" t="s">
         <v>122</v>
       </c>
+      <c r="D55">
+        <v>0.1</v>
+      </c>
+      <c r="E55">
+        <v>0.01</v>
+      </c>
+      <c r="F55" t="s">
+        <v>236</v>
+      </c>
       <c r="H55">
         <v>0</v>
       </c>
@@ -3014,6 +3764,15 @@
       <c r="C56" t="s">
         <v>123</v>
       </c>
+      <c r="D56">
+        <v>0.02</v>
+      </c>
+      <c r="E56">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F56" t="s">
+        <v>236</v>
+      </c>
       <c r="H56">
         <v>0</v>
       </c>
@@ -3031,6 +3790,15 @@
       <c r="C57" t="s">
         <v>124</v>
       </c>
+      <c r="D57">
+        <v>0.02</v>
+      </c>
+      <c r="E57">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F57" t="s">
+        <v>236</v>
+      </c>
       <c r="H57">
         <v>0</v>
       </c>
@@ -3048,6 +3816,15 @@
       <c r="C58" t="s">
         <v>125</v>
       </c>
+      <c r="D58">
+        <v>0.02</v>
+      </c>
+      <c r="E58">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F58" t="s">
+        <v>236</v>
+      </c>
       <c r="H58">
         <v>0</v>
       </c>
@@ -3065,6 +3842,15 @@
       <c r="C59" t="s">
         <v>126</v>
       </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>236</v>
+      </c>
       <c r="H59">
         <v>0</v>
       </c>
@@ -3082,6 +3868,15 @@
       <c r="C60" t="s">
         <v>127</v>
       </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>236</v>
+      </c>
       <c r="H60">
         <v>0</v>
       </c>
@@ -3098,6 +3893,15 @@
       </c>
       <c r="C61" t="s">
         <v>128</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>236</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -3117,7 +3921,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3151,10 +3955,10 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -3162,10 +3966,19 @@
         <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
         <v>196</v>
+      </c>
+      <c r="D2">
+        <v>0.85</v>
+      </c>
+      <c r="E2">
+        <v>0.12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>236</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3179,10 +3992,19 @@
         <v>165</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>239</v>
+      </c>
+      <c r="D3">
+        <v>0.78</v>
+      </c>
+      <c r="E3">
+        <v>0.08</v>
+      </c>
+      <c r="F3" t="s">
+        <v>236</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3196,10 +4018,19 @@
         <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="D4">
+        <v>0.85</v>
+      </c>
+      <c r="E4">
+        <v>0.12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>236</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3213,10 +4044,19 @@
         <v>166</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>240</v>
+      </c>
+      <c r="D5">
+        <v>0.78</v>
+      </c>
+      <c r="E5">
+        <v>0.08</v>
+      </c>
+      <c r="F5" t="s">
+        <v>236</v>
       </c>
       <c r="H5">
         <v>0</v>
